--- a/database/industries/ravankar/shaspa/cost/yearly.xlsx
+++ b/database/industries/ravankar/shaspa/cost/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\ravankar\shaspa\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ravankar\shaspa\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BD797A-0955-444D-98AE-BBBA0D0D0624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -207,7 +208,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -223,7 +224,6 @@
       <sz val="32"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri Light"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="24"/>
@@ -378,7 +378,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -390,7 +390,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -437,6 +437,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -472,6 +489,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -623,17 +657,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -648,7 +682,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -665,7 +699,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -682,7 +716,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -697,7 +731,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -714,7 +748,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -731,7 +765,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -746,7 +780,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -783,7 +817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -798,7 +832,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
@@ -835,7 +869,7 @@
         <v>93075131</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -872,7 +906,7 @@
         <v>1533444</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>17</v>
       </c>
@@ -909,7 +943,7 @@
         <v>7122415</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>18</v>
       </c>
@@ -946,7 +980,7 @@
         <v>101730990</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>19</v>
       </c>
@@ -983,7 +1017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
@@ -1020,7 +1054,7 @@
         <v>101730990</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>21</v>
       </c>
@@ -1057,7 +1091,7 @@
         <v>-122392</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
@@ -1094,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>23</v>
       </c>
@@ -1131,7 +1165,7 @@
         <v>101608598</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>24</v>
       </c>
@@ -1168,7 +1202,7 @@
         <v>4415592</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>25</v>
       </c>
@@ -1205,7 +1239,7 @@
         <v>-9667818</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>26</v>
       </c>
@@ -1242,7 +1276,7 @@
         <v>96356372</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>27</v>
       </c>
@@ -1279,7 +1313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>28</v>
       </c>
@@ -1316,7 +1350,7 @@
         <v>96356372</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1331,7 +1365,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1346,7 +1380,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1361,7 +1395,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>29</v>
       </c>
@@ -1398,7 +1432,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1413,7 +1447,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>30</v>
       </c>
@@ -1452,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
@@ -1491,7 +1525,7 @@
         <v>6167</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>34</v>
       </c>
@@ -1530,7 +1564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>35</v>
       </c>
@@ -1569,7 +1603,7 @@
         <v>15610</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>18</v>
       </c>
@@ -1606,7 +1640,7 @@
         <v>21777</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1621,7 +1655,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1636,7 +1670,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1651,7 +1685,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>36</v>
       </c>
@@ -1688,7 +1722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1703,7 +1737,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>30</v>
       </c>
@@ -1742,7 +1776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>32</v>
       </c>
@@ -1781,7 +1815,7 @@
         <v>96700</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>34</v>
       </c>
@@ -1820,7 +1854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>35</v>
       </c>
@@ -1859,7 +1893,7 @@
         <v>617043</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>18</v>
       </c>
@@ -1896,7 +1930,7 @@
         <v>713744</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1911,7 +1945,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1926,7 +1960,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1941,7 +1975,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B47" s="7" t="s">
         <v>37</v>
       </c>
@@ -1978,7 +2012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1993,7 +2027,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>30</v>
       </c>
@@ -2032,7 +2066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>32</v>
       </c>
@@ -2071,7 +2105,7 @@
         <v>100772</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>34</v>
       </c>
@@ -2110,7 +2144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>35</v>
       </c>
@@ -2149,7 +2183,7 @@
         <v>588141</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>18</v>
       </c>
@@ -2186,7 +2220,7 @@
         <v>688914</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2201,7 +2235,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2216,7 +2250,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2231,7 +2265,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
         <v>38</v>
       </c>
@@ -2268,7 +2302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2283,7 +2317,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>30</v>
       </c>
@@ -2322,7 +2356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>32</v>
       </c>
@@ -2361,7 +2395,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>34</v>
       </c>
@@ -2400,7 +2434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>35</v>
       </c>
@@ -2439,7 +2473,7 @@
         <v>44512</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="14" t="s">
         <v>18</v>
       </c>
@@ -2476,7 +2510,7 @@
         <v>46607</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2491,7 +2525,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2506,7 +2540,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2521,7 +2555,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
         <v>39</v>
       </c>
@@ -2558,7 +2592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2573,7 +2607,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>30</v>
       </c>
@@ -2612,7 +2646,7 @@
         <v>10064537</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>32</v>
       </c>
@@ -2651,7 +2685,7 @@
         <v>682685</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>34</v>
       </c>
@@ -2690,7 +2724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>35</v>
       </c>
@@ -2729,7 +2763,7 @@
         <v>1462773</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="14" t="s">
         <v>18</v>
       </c>
@@ -2766,7 +2800,7 @@
         <v>12209995</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2781,7 +2815,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2796,7 +2830,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2811,7 +2845,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B77" s="7" t="s">
         <v>41</v>
       </c>
@@ -2848,7 +2882,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2863,7 +2897,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>30</v>
       </c>
@@ -2902,7 +2936,7 @@
         <v>21560648</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>32</v>
       </c>
@@ -2941,7 +2975,7 @@
         <v>12714519</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>34</v>
       </c>
@@ -2980,7 +3014,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>35</v>
       </c>
@@ -3019,7 +3053,7 @@
         <v>67287908</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="14" t="s">
         <v>18</v>
       </c>
@@ -3056,7 +3090,7 @@
         <v>101563075</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3071,7 +3105,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3086,7 +3120,7 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3101,7 +3135,7 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B87" s="7" t="s">
         <v>42</v>
       </c>
@@ -3138,7 +3172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3153,7 +3187,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>30</v>
       </c>
@@ -3192,7 +3226,7 @@
         <v>17317056</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>32</v>
       </c>
@@ -3231,7 +3265,7 @@
         <v>13018476</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>34</v>
       </c>
@@ -3270,7 +3304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>35</v>
       </c>
@@ -3309,7 +3343,7 @@
         <v>62739599</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="14" t="s">
         <v>18</v>
       </c>
@@ -3346,7 +3380,7 @@
         <v>93075131</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3361,7 +3395,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3376,7 +3410,7 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3391,7 +3425,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
         <v>43</v>
       </c>
@@ -3428,7 +3462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3443,7 +3477,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>30</v>
       </c>
@@ -3482,7 +3516,7 @@
         <v>14308129</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>32</v>
       </c>
@@ -3521,7 +3555,7 @@
         <v>378728</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>34</v>
       </c>
@@ -3560,7 +3594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>35</v>
       </c>
@@ -3599,7 +3633,7 @@
         <v>6011082</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="14" t="s">
         <v>18</v>
       </c>
@@ -3636,7 +3670,7 @@
         <v>20697939</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3651,7 +3685,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3666,7 +3700,7 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3681,7 +3715,7 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
         <v>44</v>
       </c>
@@ -3718,7 +3752,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -3733,7 +3767,7 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>32</v>
       </c>
@@ -3772,7 +3806,7 @@
         <v>110699692</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>34</v>
       </c>
@@ -3811,7 +3845,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>35</v>
       </c>
@@ -3850,7 +3884,7 @@
         <v>93707431</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -3865,7 +3899,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -3880,7 +3914,7 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3895,7 +3929,7 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
         <v>46</v>
       </c>
@@ -3932,7 +3966,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -3947,7 +3981,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>30</v>
       </c>
@@ -3986,7 +4020,7 @@
         <v>21560648000000</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>32</v>
       </c>
@@ -4025,7 +4059,7 @@
         <v>131484168</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>34</v>
       </c>
@@ -4064,7 +4098,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>35</v>
       </c>
@@ -4103,7 +4137,7 @@
         <v>109048977</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -4118,7 +4152,7 @@
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -4133,7 +4167,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -4148,7 +4182,7 @@
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
     </row>
-    <row r="124" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B124" s="7" t="s">
         <v>48</v>
       </c>
@@ -4185,7 +4219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -4200,7 +4234,7 @@
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>30</v>
       </c>
@@ -4239,7 +4273,7 @@
         <v>17317056000000</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="10" t="s">
         <v>32</v>
       </c>
@@ -4278,7 +4312,7 @@
         <v>129187433</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="8" t="s">
         <v>34</v>
       </c>
@@ -4317,7 +4351,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="10" t="s">
         <v>35</v>
       </c>
@@ -4356,7 +4390,7 @@
         <v>106674418</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -4371,7 +4405,7 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -4386,7 +4420,7 @@
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -4401,7 +4435,7 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B133" s="7" t="s">
         <v>49</v>
       </c>
@@ -4438,7 +4472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -4453,7 +4487,7 @@
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>32</v>
       </c>
@@ -4492,7 +4526,7 @@
         <v>180777088</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>34</v>
       </c>
@@ -4531,7 +4565,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>35</v>
       </c>
@@ -4570,7 +4604,7 @@
         <v>135044078</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -4585,7 +4619,7 @@
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -4600,7 +4634,7 @@
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -4615,7 +4649,7 @@
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
     </row>
-    <row r="141" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B141" s="7" t="s">
         <v>50</v>
       </c>
@@ -4652,7 +4686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -4667,7 +4701,7 @@
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>51</v>
       </c>
@@ -4704,7 +4738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
         <v>52</v>
       </c>
@@ -4741,7 +4775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>53</v>
       </c>
@@ -4778,7 +4812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>54</v>
       </c>
@@ -4815,7 +4849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>55</v>
       </c>
@@ -4852,7 +4886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>56</v>
       </c>
@@ -4889,7 +4923,7 @@
         <v>1820679</v>
       </c>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>57</v>
       </c>
@@ -4926,7 +4960,7 @@
         <v>2655113</v>
       </c>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>58</v>
       </c>
@@ -4963,7 +4997,7 @@
         <v>1497073</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="8" t="s">
         <v>59</v>
       </c>
@@ -5000,7 +5034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="10" t="s">
         <v>60</v>
       </c>
@@ -5037,7 +5071,7 @@
         <v>1149550</v>
       </c>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="14" t="s">
         <v>18</v>
       </c>

--- a/database/industries/ravankar/shaspa/cost/yearly.xlsx
+++ b/database/industries/ravankar/shaspa/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\shaspa\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\shaspa\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91D8635-0164-4E23-8DE7-2D9561A8C189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E365BF-F6F2-427B-822E-B2343B1E902F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -647,12 +647,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -662,7 +662,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -674,7 +674,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -686,7 +686,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -696,7 +696,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -708,7 +708,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -720,7 +720,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -730,7 +730,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -752,7 +752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -762,7 +762,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
@@ -784,7 +784,7 @@
         <v>93075131</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
@@ -806,7 +806,7 @@
         <v>1533445</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
@@ -828,7 +828,7 @@
         <v>7122415</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
@@ -850,7 +850,7 @@
         <v>101730991</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
@@ -894,7 +894,7 @@
         <v>101730991</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
@@ -916,7 +916,7 @@
         <v>-122392</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
@@ -960,7 +960,7 @@
         <v>101608599</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
@@ -982,7 +982,7 @@
         <v>4415592</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>-9667819</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>96356372</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>96356372</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1080,7 +1080,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1090,7 +1090,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1100,7 +1100,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1132,7 +1132,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>27</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>6167</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>29</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>30</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>15610</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>12</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>21777</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1260,7 +1260,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1270,7 +1270,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1280,7 +1280,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>31</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1312,7 +1312,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>24</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>27</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>96700</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>29</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>30</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>617043</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>12</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>713744</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1440,7 +1440,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1450,7 +1450,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1460,7 +1460,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B47" s="7" t="s">
         <v>32</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1492,7 +1492,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>24</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>27</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>100772</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>29</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>30</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>588141</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>12</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>688914</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1620,7 +1620,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1630,7 +1630,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1640,7 +1640,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
         <v>33</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1672,7 +1672,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>24</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>27</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>29</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>30</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>44512</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="14" t="s">
         <v>12</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>46607</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1800,7 +1800,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1810,7 +1810,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1820,7 +1820,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
         <v>34</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1852,7 +1852,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>24</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>10064537</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>27</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>682685</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>29</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>30</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>1462773</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>12209995</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1980,7 +1980,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1990,7 +1990,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2000,7 +2000,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B77" s="7" t="s">
         <v>36</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2032,7 +2032,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>24</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>21560648</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>27</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>12714519</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>29</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>30</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>67287908</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="14" t="s">
         <v>12</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>101563075</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2160,7 +2160,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2170,7 +2170,7 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2180,7 +2180,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B87" s="7" t="s">
         <v>37</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2212,7 +2212,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>24</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>17317056</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>27</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>13018476</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>29</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>30</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>62739599</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="14" t="s">
         <v>12</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>93075131</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2340,7 +2340,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2350,7 +2350,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2360,7 +2360,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
         <v>38</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2392,7 +2392,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>24</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>14308129</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>27</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>378728</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>29</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>30</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>6011082</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="14" t="s">
         <v>12</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>20697939</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2520,7 +2520,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2530,7 +2530,7 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2540,7 +2540,7 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
         <v>39</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2572,7 +2572,7 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>27</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>110699692</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>29</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>30</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>93707431</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2654,7 +2654,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2664,7 +2664,7 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2674,7 +2674,7 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
         <v>41</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2706,7 +2706,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>24</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>21560648000000</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>27</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>131484168</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>29</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>30</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>109048977</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -2812,7 +2812,7 @@
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -2822,7 +2822,7 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -2832,7 +2832,7 @@
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B124" s="7" t="s">
         <v>43</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -2864,7 +2864,7 @@
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>24</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>17317056000000</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="10" t="s">
         <v>27</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>129187433</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="8" t="s">
         <v>29</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="10" t="s">
         <v>30</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>106674418</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -2970,7 +2970,7 @@
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -2980,7 +2980,7 @@
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -2990,7 +2990,7 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B133" s="7" t="s">
         <v>44</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -3022,7 +3022,7 @@
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>27</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>180777088</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>29</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>30</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>135044078</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -3104,7 +3104,7 @@
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -3114,7 +3114,7 @@
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3124,7 +3124,7 @@
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B141" s="7" t="s">
         <v>45</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3156,7 +3156,7 @@
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>46</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
         <v>47</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>48</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>49</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>50</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>51</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>1820679</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>52</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>2655113</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>53</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>1497073</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="8" t="s">
         <v>54</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="10" t="s">
         <v>55</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>1149550</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B153" s="14" t="s">
         <v>12</v>
       </c>
